--- a/PRODUTOS/Saudaveis/Saudaveis - Suplementos.xlsx
+++ b/PRODUTOS/Saudaveis/Saudaveis - Suplementos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Barra Proteina Crisp 45g Cookies</t>
+          <t>Creatina Pura Black Skull 150g</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 42,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6025da18-722e-461a-a9f0-0eb78d60ebb9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a034abe8-51d3-47c5-b54b-df718a95d7d4.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7898708731202</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Barra Yopro Nutrata 55g Morango</t>
+          <t>Whey 100% Hd Black Skull 900g Cookies E Cream</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 12,49</t>
+          <t>R$ 139,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/41428553-05e5-4c5e-9c95-418ef7a4b397.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/476776f3-0344-4db4-b891-d77a45f82301.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7898708733596</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Barra Proteina Crisp 45g Duop Crunch</t>
+          <t>Whey 100% Hd Black Skull 900g Chocolate</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 139,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/26a70732-d59d-4e7b-b968-aae82d1955ad.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/95e5ddc7-880c-4725-a9a2-3a487402295d.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7898708732261</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Creatina Integralmedica 150g</t>
+          <t>Whey 100% Hd Black Skull 900g Baunilha</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 59,99</t>
+          <t>R$ 139,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4e22e57f-3ed3-46da-909e-4d27ba1dd419.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e113dcf6-a431-41f5-88da-b650d4affb40.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7898708732261</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Barra Proteina Crisp 45g Trufa De Avela</t>
+          <t>Pré Treino Bone Crusher Black Skull 300g Wide Grape Uva</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 72,99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/52407ee4-00f4-4b79-b279-c72445ab4bae.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e8b21bd7-88c5-4aa0-97de-84c6a4d9c404.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7898708734067</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Barra Whey Grego Havanna Nutrata 40g Doce Leite</t>
+          <t>Pré Treino Bone Crusher Black Skull 300g Fruit Ponch Frutas Vermelhas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 9,49</t>
+          <t>R$ 72,99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6d57960c-04ab-4bce-88fb-eb6e1e377649.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/69001cce-1119-41e1-a88a-e0c070f6097a.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7898708734005</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Barra Proteina Crisp 45g Creme De Coco</t>
+          <t>Pré Treino Bone Crusher Black Skull 300g Hot Orange</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 72,99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d894e291-9ac9-4068-a3a6-fb8b7e7f6860.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c169e8ab-b07c-4b0a-9083-2976a4f0ad36.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7898708733916</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Barra Whey Grego Havanna Nutrata 40g Doce Leite C/ Limao</t>
+          <t>Creatina Turbo Black Skull Refil 300g Uva</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 9,49</t>
+          <t>R$ 42,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ac4bcc9f-20e7-4e3f-b885-bb10311be404.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7898708739994</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Barra Whey Grego Havanna Nutrata 40g Doce Leite C/ Morango</t>
+          <t>Creatina Turbo Black Skull Refil 300g Limão</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 9,49</t>
+          <t>R$ 42,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a0335ecd-2dca-4ef3-96c7-9ff659a64dcd.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7898708736344</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Barra Whey Grego Nutrata 40g Brigadeiro</t>
+          <t>Creatina Turbo Black Skull Refil 300g Laranja</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 8,49</t>
+          <t>R$ 42,99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/802e63d9-cd4b-4987-aa9e-3b4bc4bab792.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7898708733060</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Whey Brownie Vitalin 35g Zero Caramelo</t>
+          <t>Creatina Pura Black Skull 300g</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 58,99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/42def506-19ba-4f01-85fb-65a44d808068.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5f5b2c0a-42a4-42a9-aca6-9d5682e9fdf9.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7898708731219</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Barra Protein Nutrata 45g Dark Caramelo</t>
+          <t>Whey 100% Hd Black Skull 900g Morango</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 139,99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6836307a-1696-46ab-be65-43cf28a2d223.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/54a34eb2-4827-47fc-b436-f6ae8641c3ef.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7898708732261</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Barra Whey Grego Nutrata 40g Brigadeiro E Morango</t>
+          <t>Barra De Proteina Whey Bar Black Skull 45g Cookies E Cream</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 8,49</t>
+          <t>R$ 9,49</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e99a7c90-701a-493d-839f-f93293ab1e6f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b92b7e87-9c6c-4959-86e9-2be8d5ce32b8.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7898708734661</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Barra Protein Nutrata 45g Caramelo</t>
+          <t>Barra De Proteina Whey Bar Blac Skull 45g Brownie</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 9,49</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/09b709da-55d7-4388-8f24-b212500bb55a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/796d286f-cc51-41e9-bcf6-54efd4d64611.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7898708734616</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Barra De Proteina Whey Bar Blac Skull 45g Brownie</t>
+          <t>Barra Proteina Crisp Integralmedica 45g Ovomaltine</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 9,49</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/796d286f-cc51-41e9-bcf6-54efd4d64611.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/11155b45-51bf-4f45-bba2-d64c38ef8147.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7896311778041</t>
         </is>
       </c>
     </row>
@@ -866,17 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Nutri Whey 900g Refil Baunilha</t>
+          <t>Barra De Proteina 30g Crispy Pasta Amendoin</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R$ 83,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c2476f22-f10a-4dd6-9fa5-06b253601897.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/182fc8a6-da92-49fb-8a8e-6ff8b0232df7.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7891331018290</t>
         </is>
       </c>
     </row>
@@ -893,17 +978,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Whey Brownie Vitalin 35g Zero Chocolate</t>
+          <t>Barra Proteina Crisp 45g Cookies</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ebab4555-fe0f-4dcc-8a21-663dc485d477.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6025da18-722e-461a-a9f0-0eb78d60ebb9.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7896311773275</t>
         </is>
       </c>
     </row>
@@ -920,17 +1010,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Barra De Proteina 30g Crispy Pasta Amendoin</t>
+          <t>Creatina Black Skull 300g Limao</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 43,99</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/182fc8a6-da92-49fb-8a8e-6ff8b0232df7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e5cb08c1-5887-4e5b-b274-0f02286eecfa.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7898708736344</t>
         </is>
       </c>
     </row>
@@ -947,17 +1042,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Nutri Whey Refil 900g Cookies</t>
+          <t>Barra De Proteina Ruby Snacks 40g Pão De Mel</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>R$ 83,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/02c8107b-8901-464c-8a0d-7b976c70a0c3.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7898976208024</t>
         </is>
       </c>
     </row>
@@ -974,17 +1074,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Nutri Whey 900g Refil Morango</t>
+          <t>Barra De Proteina Ruby Snacks 40g Brigadeiro Belga</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>R$ 83,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d0404558-c5e9-4b41-b4c4-fc69e8fff7b0.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7898976208062</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1106,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Barra De Proteina 30g Crispy Chocolate Ao Leite</t>
+          <t>Creatina Energyfit Parmalat 240g</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 78,99</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5185011d-7223-4188-89e4-99205c597b67.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8f6763c3-8213-42dd-83b3-93aa8c6478a5.jpg</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7891097106514</t>
         </is>
       </c>
     </row>
@@ -1028,7 +1138,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Nutri Whey 900g Refil Chocolate</t>
+          <t>Creatina Hardcore Integralmedica 350g Morango</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1038,7 +1148,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/84510b7f-adf2-401c-a665-b8708a0e8476.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3d6a0da7-2d04-4269-8778-eb384cf85739.jpg</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7896311777587</t>
         </is>
       </c>
     </row>
@@ -1055,17 +1170,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Whey 100% Integralmedica 900g Morango</t>
+          <t>Creatina Harcode Integral Medica 350g Limão</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>R$ 147,99</t>
+          <t>R$ 83,99</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/acef07b9-24e0-41fb-a0aa-83c97c974ae5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0516c4b3-f434-4bef-b959-b0aa1b7a18b1.jpg</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7896311777570</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1202,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Whey Drink Gourmet Black Skull 250ml Chocolate</t>
+          <t>Creatina Hardcore Integralmedica 300g</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 83,99</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a8e8787a-0b84-4fe9-ae13-de6fe322bb73.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a3c0b5f0-ed4d-4f8f-83fd-8fee75ff7105.jpg</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7896311708314</t>
         </is>
       </c>
     </row>
@@ -1109,17 +1234,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Whey 100% Integralmedica 900g Baunilha</t>
+          <t>Creatina Turbo Black Skull Pote 300g Laranja</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>R$ 147,99</t>
+          <t>R$ 43,99</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/70001b27-0188-4deb-a54c-74c6050ecf93.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/565c8c68-2cf3-435b-8525-13a412a65ee2.jpg</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7898708736351</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1266,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Whey 100% Integralmedica 900g Chocolate</t>
+          <t>Creatina Black Skull 300g Uva</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>R$ 147,99</t>
+          <t>R$ 43,99</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fd98106e-61ef-4cde-bf38-55d7ec53b9bb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/db0ba8fe-7655-4c0c-92b8-2bb393ebbdc8.jpg</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7898708739994</t>
         </is>
       </c>
     </row>
@@ -1163,17 +1298,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Whey Cookie Vitalin 40g Zero Chocolate</t>
+          <t>Barra De Proteina 30g Crispy Chocolate Ao Leite</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>R$ 8,49</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3fa08a97-35cb-4388-8983-9adac215229d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5185011d-7223-4188-89e4-99205c597b67.jpg</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7891331018283</t>
         </is>
       </c>
     </row>
@@ -1190,17 +1330,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Barra Proteina Crisp Integralmedica 45g Ovomaltine</t>
+          <t>Whey Turbo Black Skull Refil 907g Morango</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 65,99</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/11155b45-51bf-4f45-bba2-d64c38ef8147.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/96babf14-9f02-4e21-8b92-8ff146431a60.jpg</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7898708730168</t>
         </is>
       </c>
     </row>
@@ -1217,17 +1362,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Pré Treino Bone Crusher Black Skull 300g Fruit Ponch Frutas Vermelhas</t>
+          <t>Whey Turbo Black Skull Refil 907g Chocolate</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>R$ 72,99</t>
+          <t>R$ 65,99</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/69001cce-1119-41e1-a88a-e0c070f6097a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/80291d02-b377-4ff9-baf0-0a2ac205e479.jpg</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7898708730151</t>
         </is>
       </c>
     </row>
@@ -1244,17 +1394,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Whey Best Toddy Athetica 900g</t>
+          <t>Whey Turbo Black Skull Refil 907g Baunilha</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>R$ 198,99</t>
+          <t>R$ 65,99</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e3b62cc9-2a4f-4dea-bea6-9edbff211d67.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b9ecac9a-2b8e-4d4e-97cf-9b12fa41a553.jpg</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7898708730144</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1426,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Pre Treino X7 Original Athetica 300g Pink Lemonade</t>
+          <t>Whey Drink Gourmet Black Skull 250ml Morango</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>R$ 87,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/aad0781a-78b6-437a-976d-e9174962bc7f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b3aca222-7e25-494f-a27f-7300d1c6cae6.jpg</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7898708737358</t>
         </is>
       </c>
     </row>
@@ -1298,17 +1458,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Barra De Proteina Whey Bar Black Skull 45g Cookies E Cream</t>
+          <t>Whey Drink Gourmet Black Skull 250ml Doce De Leite</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>R$ 9,49</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b92b7e87-9c6c-4959-86e9-2be8d5ce32b8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/aa4dbcb2-bb9f-4157-873b-602023566dc5.jpg</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7898708737358</t>
         </is>
       </c>
     </row>
@@ -1325,17 +1490,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Barra De Proteina Whey Crispy Black Skull 45g Chocolate Com Morango</t>
+          <t>Whey Drink Gourmet Black Skull 250ml Chocolate</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>R$ 9,49</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a8e8787a-0b84-4fe9-ae13-de6fe322bb73.jpg</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7898708737358</t>
         </is>
       </c>
     </row>
@@ -1352,17 +1522,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Barra De Proteina Whey Crispy Black Skull 45g Cocada</t>
+          <t>Whey 100% Hd Black Skull Refil 900g Morango</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>R$ 9,49</t>
+          <t>R$ 118,99</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cf58bc0e-e6bc-4d68-9ba2-8ed2e0f72bce.jpg</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7898708732261</t>
         </is>
       </c>
     </row>
@@ -1379,17 +1554,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Barra De Proteina Whey Crispy Black Skull 45g Pistache</t>
+          <t>Whey 100% Hd Black Skull Ref 900g Cookies E Cream</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>R$ 9,49</t>
+          <t>R$ 118,99</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7898708733596</t>
         </is>
       </c>
     </row>
@@ -1406,17 +1586,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Creatina Pura Black Skull 150g</t>
+          <t>Whey 100% Hd Black Skull Refil 900g Chocolate</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>R$ 42,99</t>
+          <t>R$ 118,99</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a034abe8-51d3-47c5-b54b-df718a95d7d4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/461bd100-8cbe-41ca-8f7e-4248cf708f00.jpg</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7898708732261</t>
         </is>
       </c>
     </row>
@@ -1433,17 +1618,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Creatina Pura Black Skull 300g</t>
+          <t>Whey 100% Hd Black Skull Refil 900g Baunilha</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>R$ 58,99</t>
+          <t>R$ 118,99</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5f5b2c0a-42a4-42a9-aca6-9d5682e9fdf9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dd20b6eb-5a46-4c90-a34c-267f52c4e10b.jpg</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7898708732261</t>
         </is>
       </c>
     </row>
@@ -1460,17 +1650,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Creatina Turbo Black Skull Refil 300g Laranja</t>
+          <t>Whey 100% Integralmedica 900g Baunilha</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>R$ 42,99</t>
+          <t>R$ 147,99</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/70001b27-0188-4deb-a54c-74c6050ecf93.jpg</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7896311709984</t>
         </is>
       </c>
     </row>
@@ -1487,17 +1682,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Creatina Turbo Black Skull Refil 300g Limão</t>
+          <t>Barra Proteina Crisp 45g Creme De Coco</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>R$ 42,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d894e291-9ac9-4068-a3a6-fb8b7e7f6860.jpg</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7896311775705</t>
         </is>
       </c>
     </row>
@@ -1514,17 +1714,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Creatina Turbo Black Skull Refil 300g Uva</t>
+          <t>Barra Proteina Crisp 45g Duop Crunch</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>R$ 42,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/26a70732-d59d-4e7b-b968-aae82d1955ad.jpg</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7896311773299</t>
         </is>
       </c>
     </row>
@@ -1541,17 +1746,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Pré Treino Bone Crusher Black Skull 300g Hot Orange</t>
+          <t>Barra Proteina Crisp 45g Trufa De Avela</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>R$ 72,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c169e8ab-b07c-4b0a-9083-2976a4f0ad36.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/52407ee4-00f4-4b79-b279-c72445ab4bae.jpg</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7896311710300</t>
         </is>
       </c>
     </row>
@@ -1568,17 +1778,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Pré Treino Bone Crusher Black Skull 300g Wide Grape Uva</t>
+          <t>Creatina Integralmedica 150g</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>R$ 72,99</t>
+          <t>R$ 59,99</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e8b21bd7-88c5-4aa0-97de-84c6a4d9c404.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4e22e57f-3ed3-46da-909e-4d27ba1dd419.jpg</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7896311763498</t>
         </is>
       </c>
     </row>
@@ -1595,17 +1810,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Whey 100% Hd Black Skull 900g Baunilha</t>
+          <t>Nutri Whey 900g Refil Baunilha</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>R$ 139,99</t>
+          <t>R$ 83,99</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e113dcf6-a431-41f5-88da-b650d4affb40.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c2476f22-f10a-4dd6-9fa5-06b253601897.jpg</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7896311709489</t>
         </is>
       </c>
     </row>
@@ -1622,17 +1842,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Whey 100% Hd Black Skull 900g Chocolate</t>
+          <t>Nutri Whey 900g Refil Chocolate</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>R$ 139,99</t>
+          <t>R$ 83,99</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/95e5ddc7-880c-4725-a9a2-3a487402295d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/84510b7f-adf2-401c-a665-b8708a0e8476.jpg</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7896311709502</t>
         </is>
       </c>
     </row>
@@ -1649,17 +1874,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Whey 100% Hd Black Skull 900g Cookies E Cream</t>
+          <t>Nutri Whey Refil 900g Cookies</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>R$ 139,99</t>
+          <t>R$ 83,99</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/476776f3-0344-4db4-b891-d77a45f82301.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/02c8107b-8901-464c-8a0d-7b976c70a0c3.jpg</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7896311773022</t>
         </is>
       </c>
     </row>
@@ -1676,17 +1906,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Whey 100% Hd Black Skull 900g Morango</t>
+          <t>Nutri Whey 900g Refil Morango</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>R$ 139,99</t>
+          <t>R$ 83,99</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/54a34eb2-4827-47fc-b436-f6ae8641c3ef.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d0404558-c5e9-4b41-b4c4-fc69e8fff7b0.jpg</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7896311709496</t>
         </is>
       </c>
     </row>
@@ -1703,17 +1938,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Whey 100% Hd Black Skull Refil 900g Baunilha</t>
+          <t>Whey 100% Integralmedica 900g Chocolate</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>R$ 118,99</t>
+          <t>R$ 147,99</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dd20b6eb-5a46-4c90-a34c-267f52c4e10b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fd98106e-61ef-4cde-bf38-55d7ec53b9bb.jpg</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7896311709991</t>
         </is>
       </c>
     </row>
@@ -1730,17 +1970,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Whey 100% Hd Black Skull Refil 900g Chocolate</t>
+          <t>Whey 100% Integralmedica 900g Morango</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>R$ 118,99</t>
+          <t>R$ 147,99</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/461bd100-8cbe-41ca-8f7e-4248cf708f00.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/acef07b9-24e0-41fb-a0aa-83c97c974ae5.jpg</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7896311710010</t>
         </is>
       </c>
     </row>
@@ -1757,17 +2002,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Whey 100% Hd Black Skull Ref 900g Cookies E Cream</t>
+          <t>Whey Brownie Vitalin 35g Zero Caramelo</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>R$ 118,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/42def506-19ba-4f01-85fb-65a44d808068.jpg</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7898568901807</t>
         </is>
       </c>
     </row>
@@ -1784,17 +2034,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Whey 100% Hd Black Skull Refil 900g Morango</t>
+          <t>Whey Brownie Vitalin 35g Zero Chocolate</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>R$ 118,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cf58bc0e-e6bc-4d68-9ba2-8ed2e0f72bce.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ebab4555-fe0f-4dcc-8a21-663dc485d477.jpg</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7898568901814</t>
         </is>
       </c>
     </row>
@@ -1811,17 +2066,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Whey Drink Gourmet Black Skull 250ml Doce De Leite</t>
+          <t>Whey Cookie Vitalin 40g Zero Chocolate</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 8,49</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/aa4dbcb2-bb9f-4157-873b-602023566dc5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3fa08a97-35cb-4388-8983-9adac215229d.jpg</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7898568901814</t>
         </is>
       </c>
     </row>
@@ -1838,7 +2098,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Whey Drink Gourmet Black Skull 250ml Morango</t>
+          <t>Barra Protein Nutrata 45g Caramelo</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1848,7 +2108,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b3aca222-7e25-494f-a27f-7300d1c6cae6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/09b709da-55d7-4388-8f24-b212500bb55a.jpg</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7898599217618</t>
         </is>
       </c>
     </row>
@@ -1865,17 +2130,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Whey Turbo Black Skull Refil 907g Baunilha</t>
+          <t>Barra Protein Nutrata 45g Dark Caramelo</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>R$ 65,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b9ecac9a-2b8e-4d4e-97cf-9b12fa41a553.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6836307a-1696-46ab-be65-43cf28a2d223.jpg</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7898599217632</t>
         </is>
       </c>
     </row>
@@ -1892,17 +2162,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Whey Turbo Black Skull Refil 907g Chocolate</t>
+          <t>Barra Whey Grego Havanna Nutrata 40g Doce Leite C/ Morango</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>R$ 65,99</t>
+          <t>R$ 9,49</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/80291d02-b377-4ff9-baf0-0a2ac205e479.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a0335ecd-2dca-4ef3-96c7-9ff659a64dcd.jpg</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7898599213603</t>
         </is>
       </c>
     </row>
@@ -1919,17 +2194,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Whey Turbo Black Skull Refil 907g Morango</t>
+          <t>Barra Whey Grego Havanna Nutrata 40g Doce Leite C/ Limao</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>R$ 65,99</t>
+          <t>R$ 9,49</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/96babf14-9f02-4e21-8b92-8ff146431a60.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ac4bcc9f-20e7-4e3f-b885-bb10311be404.jpg</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7898599217250</t>
         </is>
       </c>
     </row>
@@ -1946,17 +2226,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Creatina Black Skull 300g Limao</t>
+          <t>Barra Whey Grego Havanna Nutrata 40g Doce Leite</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>R$ 43,99</t>
+          <t>R$ 9,49</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e5cb08c1-5887-4e5b-b274-0f02286eecfa.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6d57960c-04ab-4bce-88fb-eb6e1e377649.jpg</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7898599213603</t>
         </is>
       </c>
     </row>
@@ -1973,17 +2258,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Creatina Black Skull 300g Uva</t>
+          <t>Barra Whey Grego Nutrata 40g Brigadeiro</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>R$ 43,99</t>
+          <t>R$ 8,49</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/db0ba8fe-7655-4c0c-92b8-2bb393ebbdc8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/802e63d9-cd4b-4987-aa9e-3b4bc4bab792.jpg</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7898599213603</t>
         </is>
       </c>
     </row>
@@ -2000,233 +2290,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Creatina Turbo Black Skull Pote 300g Laranja</t>
+          <t>Barra Yopro Nutrata 55g Morango</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>R$ 43,99</t>
+          <t>R$ 12,49</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/565c8c68-2cf3-435b-8525-13a412a65ee2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Suplementos</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Creatina Hardcore Integralmedica 300g</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>R$ 83,99</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a3c0b5f0-ed4d-4f8f-83fd-8fee75ff7105.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Suplementos</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Creatina Harcode Integral Medica 350g Limão</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>R$ 83,99</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0516c4b3-f434-4bef-b959-b0aa1b7a18b1.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Suplementos</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Creatina Hardcore Integralmedica 350g Morango</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>R$ 83,99</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3d6a0da7-2d04-4269-8778-eb384cf85739.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Suplementos</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Creatina Energyfit Parmalat 240g</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>R$ 78,99</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8f6763c3-8213-42dd-83b3-93aa8c6478a5.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Suplementos</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Barra De Proteina Ruby Snacks 40g Bolo De Cenoura</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Suplementos</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Barra De Proteina Ruby Snacks 40g Brigadeiro Belga</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Suplementos</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Barra De Proteina Ruby 40g Doce De Leite Com Amendoim</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Suplementos</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Barra De Proteina Ruby Snacks 40g Pão De Mel</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/41428553-05e5-4c5e-9c95-418ef7a4b397.jpg</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7898599217687</t>
         </is>
       </c>
     </row>
